--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7481976483760761</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H2">
-        <v>0.7481976483760761</v>
+        <v>10.334203</v>
       </c>
       <c r="I2">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J2">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>54.64003880078059</v>
+        <v>326.5603015345843</v>
       </c>
       <c r="R2">
-        <v>54.64003880078059</v>
+        <v>2939.042713811259</v>
       </c>
       <c r="S2">
-        <v>0.0005677121722231914</v>
+        <v>0.002041400674285836</v>
       </c>
       <c r="T2">
-        <v>0.0005677121722231914</v>
+        <v>0.002041400674285836</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7481976483760761</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H3">
-        <v>0.7481976483760761</v>
+        <v>10.334203</v>
       </c>
       <c r="I3">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J3">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>108.4061080559008</v>
+        <v>501.6958023313181</v>
       </c>
       <c r="R3">
-        <v>108.4061080559008</v>
+        <v>4515.262220981863</v>
       </c>
       <c r="S3">
-        <v>0.001126343766172403</v>
+        <v>0.003136211426657635</v>
       </c>
       <c r="T3">
-        <v>0.001126343766172403</v>
+        <v>0.003136211426657635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7481976483760761</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H4">
-        <v>0.7481976483760761</v>
+        <v>10.334203</v>
       </c>
       <c r="I4">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J4">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>50.8922236935159</v>
+        <v>250.6938847971262</v>
       </c>
       <c r="R4">
-        <v>50.8922236935159</v>
+        <v>2256.244963174136</v>
       </c>
       <c r="S4">
-        <v>0.0005287722244791254</v>
+        <v>0.001567142922943408</v>
       </c>
       <c r="T4">
-        <v>0.0005287722244791254</v>
+        <v>0.001567142922943408</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7481976483760761</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H5">
-        <v>0.7481976483760761</v>
+        <v>10.334203</v>
       </c>
       <c r="I5">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J5">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>57.12223808761843</v>
+        <v>263.1298327418811</v>
       </c>
       <c r="R5">
-        <v>57.12223808761843</v>
+        <v>2368.16849467693</v>
       </c>
       <c r="S5">
-        <v>0.0005935023213510034</v>
+        <v>0.001644882784158956</v>
       </c>
       <c r="T5">
-        <v>0.0005935023213510034</v>
+        <v>0.001644882784158956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7481976483760761</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H6">
-        <v>0.7481976483760761</v>
+        <v>10.334203</v>
       </c>
       <c r="I6">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J6">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>42.65603361533899</v>
+        <v>200.4383639539526</v>
       </c>
       <c r="R6">
-        <v>42.65603361533899</v>
+        <v>1803.945275585574</v>
       </c>
       <c r="S6">
-        <v>0.0004431978826091831</v>
+        <v>0.001252984546515722</v>
       </c>
       <c r="T6">
-        <v>0.0004431978826091831</v>
+        <v>0.001252984546515722</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7481976483760761</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H7">
-        <v>0.7481976483760761</v>
+        <v>10.334203</v>
       </c>
       <c r="I7">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J7">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>80.6168767885322</v>
+        <v>399.0238730564471</v>
       </c>
       <c r="R7">
-        <v>80.6168767885322</v>
+        <v>3591.214857508024</v>
       </c>
       <c r="S7">
-        <v>0.0008376125501362776</v>
+        <v>0.002494386487536086</v>
       </c>
       <c r="T7">
-        <v>0.0008376125501362776</v>
+        <v>0.002494386487536086</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>152.565397034209</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H8">
-        <v>152.565397034209</v>
+        <v>460.130753</v>
       </c>
       <c r="I8">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J8">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>11141.68058627145</v>
+        <v>14540.10894163927</v>
       </c>
       <c r="R8">
-        <v>11141.68058627145</v>
+        <v>130860.9804747534</v>
       </c>
       <c r="S8">
-        <v>0.1157625035902932</v>
+        <v>0.09089343701046414</v>
       </c>
       <c r="T8">
-        <v>0.1157625035902932</v>
+        <v>0.09089343701046414</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>152.565397034209</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H9">
-        <v>152.565397034209</v>
+        <v>460.130753</v>
       </c>
       <c r="I9">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J9">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>22105.14955824702</v>
+        <v>22338.02329058648</v>
       </c>
       <c r="R9">
-        <v>22105.14955824702</v>
+        <v>201042.2096152783</v>
       </c>
       <c r="S9">
-        <v>0.2296733814334636</v>
+        <v>0.1396399243671894</v>
       </c>
       <c r="T9">
-        <v>0.2296733814334636</v>
+        <v>0.1396399243671894</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>152.565397034209</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H10">
-        <v>152.565397034209</v>
+        <v>460.130753</v>
       </c>
       <c r="I10">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J10">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>10377.46153119732</v>
+        <v>11162.15406105308</v>
       </c>
       <c r="R10">
-        <v>10377.46153119732</v>
+        <v>100459.3865494777</v>
       </c>
       <c r="S10">
-        <v>0.1078222372703453</v>
+        <v>0.06977709390773254</v>
       </c>
       <c r="T10">
-        <v>0.1078222372703453</v>
+        <v>0.06977709390773253</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>152.565397034209</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H11">
-        <v>152.565397034209</v>
+        <v>460.130753</v>
       </c>
       <c r="I11">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J11">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>11647.82721816262</v>
+        <v>11715.86508183416</v>
       </c>
       <c r="R11">
-        <v>11647.82721816262</v>
+        <v>105442.7857365074</v>
       </c>
       <c r="S11">
-        <v>0.1210213871884923</v>
+        <v>0.07323846396977078</v>
       </c>
       <c r="T11">
-        <v>0.1210213871884923</v>
+        <v>0.07323846396977078</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>152.565397034209</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H12">
-        <v>152.565397034209</v>
+        <v>460.130753</v>
       </c>
       <c r="I12">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J12">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>8698.015448930741</v>
+        <v>8924.52522330172</v>
       </c>
       <c r="R12">
-        <v>8698.015448930741</v>
+        <v>80320.72700971547</v>
       </c>
       <c r="S12">
-        <v>0.09037272580547293</v>
+        <v>0.05578918111881902</v>
       </c>
       <c r="T12">
-        <v>0.09037272580547293</v>
+        <v>0.05578918111881902</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>152.565397034209</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H13">
-        <v>152.565397034209</v>
+        <v>460.130753</v>
       </c>
       <c r="I13">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J13">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>16438.63201333954</v>
+        <v>17766.55201900325</v>
       </c>
       <c r="R13">
-        <v>16438.63201333954</v>
+        <v>159898.9681710293</v>
       </c>
       <c r="S13">
-        <v>0.170798039194243</v>
+        <v>0.1110626463195086</v>
       </c>
       <c r="T13">
-        <v>0.170798039194243</v>
+        <v>0.1110626463195086</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.51967510111432</v>
+        <v>91.68981500000001</v>
       </c>
       <c r="H14">
-        <v>4.51967510111432</v>
+        <v>275.069445</v>
       </c>
       <c r="I14">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="J14">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>330.0668258284583</v>
+        <v>8692.180800217566</v>
       </c>
       <c r="R14">
-        <v>330.0668258284583</v>
+        <v>78229.62720195809</v>
       </c>
       <c r="S14">
-        <v>0.003429407423246757</v>
+        <v>0.0543367447396215</v>
       </c>
       <c r="T14">
-        <v>0.003429407423246757</v>
+        <v>0.0543367447396215</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.51967510111432</v>
+        <v>91.68981500000001</v>
       </c>
       <c r="H15">
-        <v>4.51967510111432</v>
+        <v>275.069445</v>
       </c>
       <c r="I15">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="J15">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>654.8542199409433</v>
+        <v>13353.82959925457</v>
       </c>
       <c r="R15">
-        <v>654.8542199409433</v>
+        <v>120184.4663932912</v>
       </c>
       <c r="S15">
-        <v>0.006803961341383331</v>
+        <v>0.08347774245709844</v>
       </c>
       <c r="T15">
-        <v>0.006803961341383331</v>
+        <v>0.08347774245709844</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.51967510111432</v>
+        <v>91.68981500000001</v>
       </c>
       <c r="H16">
-        <v>4.51967510111432</v>
+        <v>275.069445</v>
       </c>
       <c r="I16">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="J16">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>307.4272109343868</v>
+        <v>6672.815286872094</v>
       </c>
       <c r="R16">
-        <v>307.4272109343868</v>
+        <v>60055.33758184885</v>
       </c>
       <c r="S16">
-        <v>0.00319418092575704</v>
+        <v>0.04171324426757642</v>
       </c>
       <c r="T16">
-        <v>0.00319418092575704</v>
+        <v>0.04171324426757641</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.51967510111432</v>
+        <v>91.68981500000001</v>
       </c>
       <c r="H17">
-        <v>4.51967510111432</v>
+        <v>275.069445</v>
       </c>
       <c r="I17">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="J17">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>345.0611716902428</v>
+        <v>7003.827683204217</v>
       </c>
       <c r="R17">
-        <v>345.0611716902428</v>
+        <v>63034.44914883796</v>
       </c>
       <c r="S17">
-        <v>0.003585199271991526</v>
+        <v>0.0437824759711667</v>
       </c>
       <c r="T17">
-        <v>0.003585199271991526</v>
+        <v>0.0437824759711667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.51967510111432</v>
+        <v>91.68981500000001</v>
       </c>
       <c r="H18">
-        <v>4.51967510111432</v>
+        <v>275.069445</v>
       </c>
       <c r="I18">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="J18">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>257.6744439948278</v>
+        <v>5335.14481276609</v>
       </c>
       <c r="R18">
-        <v>257.6744439948278</v>
+        <v>48016.30331489481</v>
       </c>
       <c r="S18">
-        <v>0.002677247702185323</v>
+        <v>0.03335117026476608</v>
       </c>
       <c r="T18">
-        <v>0.002677247702185323</v>
+        <v>0.03335117026476608</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.51967510111432</v>
+        <v>91.68981500000001</v>
       </c>
       <c r="H19">
-        <v>4.51967510111432</v>
+        <v>275.069445</v>
       </c>
       <c r="I19">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="J19">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N19">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q19">
-        <v>486.986415343003</v>
+        <v>10620.97147727671</v>
       </c>
       <c r="R19">
-        <v>486.986415343003</v>
+        <v>95588.74329549038</v>
       </c>
       <c r="S19">
-        <v>0.005059808187647404</v>
+        <v>0.06639404187648053</v>
       </c>
       <c r="T19">
-        <v>0.005059808187647404</v>
+        <v>0.06639404187648051</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.75936384138981</v>
+        <v>8.359539333333334</v>
       </c>
       <c r="H20">
-        <v>3.75936384138981</v>
+        <v>25.078618</v>
       </c>
       <c r="I20">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957465</v>
       </c>
       <c r="J20">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957464</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N20">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q20">
-        <v>274.5421435173264</v>
+        <v>792.4830832286394</v>
       </c>
       <c r="R20">
-        <v>274.5421435173264</v>
+        <v>7132.347749057755</v>
       </c>
       <c r="S20">
-        <v>0.002852503769832716</v>
+        <v>0.00495398703657717</v>
       </c>
       <c r="T20">
-        <v>0.002852503769832716</v>
+        <v>0.00495398703657717</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.75936384138981</v>
+        <v>8.359539333333334</v>
       </c>
       <c r="H21">
-        <v>3.75936384138981</v>
+        <v>25.078618</v>
       </c>
       <c r="I21">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957465</v>
       </c>
       <c r="J21">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957464</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N21">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q21">
-        <v>544.6929747716931</v>
+        <v>1217.494699772265</v>
       </c>
       <c r="R21">
-        <v>544.6929747716931</v>
+        <v>10957.45229795039</v>
       </c>
       <c r="S21">
-        <v>0.005659381630928348</v>
+        <v>0.007610828656683235</v>
       </c>
       <c r="T21">
-        <v>0.005659381630928348</v>
+        <v>0.007610828656683236</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.75936384138981</v>
+        <v>8.359539333333334</v>
       </c>
       <c r="H22">
-        <v>3.75936384138981</v>
+        <v>25.078618</v>
       </c>
       <c r="I22">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957465</v>
       </c>
       <c r="J22">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957464</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N22">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q22">
-        <v>255.7110223168713</v>
+        <v>608.3735893095129</v>
       </c>
       <c r="R22">
-        <v>255.7110223168713</v>
+        <v>5475.362303785617</v>
       </c>
       <c r="S22">
-        <v>0.002656847673008059</v>
+        <v>0.003803077868307906</v>
       </c>
       <c r="T22">
-        <v>0.002656847673008059</v>
+        <v>0.003803077868307905</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.75936384138981</v>
+        <v>8.359539333333334</v>
       </c>
       <c r="H23">
-        <v>3.75936384138981</v>
+        <v>25.078618</v>
       </c>
       <c r="I23">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957465</v>
       </c>
       <c r="J23">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957464</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N23">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q23">
-        <v>287.0141023190084</v>
+        <v>638.5526353350646</v>
       </c>
       <c r="R23">
-        <v>287.0141023190084</v>
+        <v>5746.973718015582</v>
       </c>
       <c r="S23">
-        <v>0.002982087916890091</v>
+        <v>0.003991733760087634</v>
       </c>
       <c r="T23">
-        <v>0.002982087916890091</v>
+        <v>0.003991733760087635</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.75936384138981</v>
+        <v>8.359539333333334</v>
       </c>
       <c r="H24">
-        <v>3.75936384138981</v>
+        <v>25.078618</v>
       </c>
       <c r="I24">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957465</v>
       </c>
       <c r="J24">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957464</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N24">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O24">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P24">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q24">
-        <v>214.3277925808317</v>
+        <v>486.4155622011826</v>
       </c>
       <c r="R24">
-        <v>214.3277925808317</v>
+        <v>4377.740059810644</v>
       </c>
       <c r="S24">
-        <v>0.002226874273232164</v>
+        <v>0.003040691265883884</v>
       </c>
       <c r="T24">
-        <v>0.002226874273232164</v>
+        <v>0.003040691265883884</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.75936384138981</v>
+        <v>8.359539333333334</v>
       </c>
       <c r="H25">
-        <v>3.75936384138981</v>
+        <v>25.078618</v>
       </c>
       <c r="I25">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957465</v>
       </c>
       <c r="J25">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957464</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N25">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q25">
-        <v>405.0643199191805</v>
+        <v>968.3346925992389</v>
       </c>
       <c r="R25">
-        <v>405.0643199191805</v>
+        <v>8715.01223339315</v>
       </c>
       <c r="S25">
-        <v>0.004208634364076301</v>
+        <v>0.006053274342034821</v>
       </c>
       <c r="T25">
-        <v>0.004208634364076301</v>
+        <v>0.006053274342034821</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.98049372341085</v>
+        <v>8.759714000000001</v>
       </c>
       <c r="H26">
-        <v>6.98049372341085</v>
+        <v>26.279142</v>
       </c>
       <c r="I26">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101112</v>
       </c>
       <c r="J26">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101111</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N26">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q26">
-        <v>509.7776619902701</v>
+        <v>830.4195820026141</v>
       </c>
       <c r="R26">
-        <v>509.7776619902701</v>
+        <v>7473.776238023527</v>
       </c>
       <c r="S26">
-        <v>0.005296610145072253</v>
+        <v>0.005191136481299354</v>
       </c>
       <c r="T26">
-        <v>0.005296610145072253</v>
+        <v>0.005191136481299354</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.98049372341085</v>
+        <v>8.759714000000001</v>
       </c>
       <c r="H27">
-        <v>6.98049372341085</v>
+        <v>26.279142</v>
       </c>
       <c r="I27">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101112</v>
       </c>
       <c r="J27">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101111</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N27">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q27">
-        <v>1011.401410450906</v>
+        <v>1275.776683530277</v>
       </c>
       <c r="R27">
-        <v>1011.401410450906</v>
+        <v>11481.9901517725</v>
       </c>
       <c r="S27">
-        <v>0.01050850080488011</v>
+        <v>0.007975162228103957</v>
       </c>
       <c r="T27">
-        <v>0.01050850080488011</v>
+        <v>0.007975162228103957</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.98049372341085</v>
+        <v>8.759714000000001</v>
       </c>
       <c r="H28">
-        <v>6.98049372341085</v>
+        <v>26.279142</v>
       </c>
       <c r="I28">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101112</v>
       </c>
       <c r="J28">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101111</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N28">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q28">
-        <v>474.8115004558842</v>
+        <v>637.4966891123894</v>
       </c>
       <c r="R28">
-        <v>474.8115004558842</v>
+        <v>5737.470202011504</v>
       </c>
       <c r="S28">
-        <v>0.004933310338654296</v>
+        <v>0.003985132806692967</v>
       </c>
       <c r="T28">
-        <v>0.004933310338654296</v>
+        <v>0.003985132806692966</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.98049372341085</v>
+        <v>8.759714000000001</v>
       </c>
       <c r="H29">
-        <v>6.98049372341085</v>
+        <v>26.279142</v>
       </c>
       <c r="I29">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101112</v>
       </c>
       <c r="J29">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101111</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N29">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q29">
-        <v>532.9359498833606</v>
+        <v>669.1204187744468</v>
       </c>
       <c r="R29">
-        <v>532.9359498833606</v>
+        <v>6022.083768970021</v>
       </c>
       <c r="S29">
-        <v>0.005537225675611894</v>
+        <v>0.004182819735423096</v>
       </c>
       <c r="T29">
-        <v>0.005537225675611894</v>
+        <v>0.004182819735423096</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.98049372341085</v>
+        <v>8.759714000000001</v>
       </c>
       <c r="H30">
-        <v>6.98049372341085</v>
+        <v>26.279142</v>
       </c>
       <c r="I30">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101112</v>
       </c>
       <c r="J30">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101111</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N30">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O30">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P30">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q30">
-        <v>397.9699422522231</v>
+        <v>509.700479910604</v>
       </c>
       <c r="R30">
-        <v>397.9699422522231</v>
+        <v>4587.304319195436</v>
       </c>
       <c r="S30">
-        <v>0.004134923498486239</v>
+        <v>0.003186250436699596</v>
       </c>
       <c r="T30">
-        <v>0.004134923498486239</v>
+        <v>0.003186250436699596</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.98049372341085</v>
+        <v>8.759714000000001</v>
       </c>
       <c r="H31">
-        <v>6.98049372341085</v>
+        <v>26.279142</v>
       </c>
       <c r="I31">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101112</v>
       </c>
       <c r="J31">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101111</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N31">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q31">
-        <v>752.1349521008851</v>
+        <v>1014.689281934983</v>
       </c>
       <c r="R31">
-        <v>752.1349521008851</v>
+        <v>9132.203537414849</v>
       </c>
       <c r="S31">
-        <v>0.007814712010345046</v>
+        <v>0.006343047132792152</v>
       </c>
       <c r="T31">
-        <v>0.007814712010345046</v>
+        <v>0.00634304713279215</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>14.041447921999</v>
+        <v>18.18997866666666</v>
       </c>
       <c r="H32">
-        <v>14.041447921999</v>
+        <v>54.569936</v>
       </c>
       <c r="I32">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="J32">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N32">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q32">
-        <v>1025.431262638138</v>
+        <v>1724.407267293179</v>
       </c>
       <c r="R32">
-        <v>1025.431262638138</v>
+        <v>15519.66540563861</v>
       </c>
       <c r="S32">
-        <v>0.01065427152605811</v>
+        <v>0.01077965123639771</v>
       </c>
       <c r="T32">
-        <v>0.01065427152605811</v>
+        <v>0.01077965123639771</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>14.041447921999</v>
+        <v>18.18997866666666</v>
       </c>
       <c r="H33">
-        <v>14.041447921999</v>
+        <v>54.569936</v>
       </c>
       <c r="I33">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="J33">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N33">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q33">
-        <v>2034.460712349654</v>
+        <v>2649.213279890929</v>
       </c>
       <c r="R33">
-        <v>2034.460712349654</v>
+        <v>23842.91951901837</v>
       </c>
       <c r="S33">
-        <v>0.02113812756469461</v>
+        <v>0.01656081817196506</v>
       </c>
       <c r="T33">
-        <v>0.02113812756469461</v>
+        <v>0.01656081817196506</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>14.041447921999</v>
+        <v>18.18997866666666</v>
       </c>
       <c r="H34">
-        <v>14.041447921999</v>
+        <v>54.569936</v>
       </c>
       <c r="I34">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="J34">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N34">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q34">
-        <v>955.0959030387628</v>
+        <v>1323.793353872626</v>
       </c>
       <c r="R34">
-        <v>955.0959030387628</v>
+        <v>11914.14018485363</v>
       </c>
       <c r="S34">
-        <v>0.009923484347669612</v>
+        <v>0.008275325054856644</v>
       </c>
       <c r="T34">
-        <v>0.009923484347669612</v>
+        <v>0.008275325054856644</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>14.041447921999</v>
+        <v>18.18997866666666</v>
       </c>
       <c r="H35">
-        <v>14.041447921999</v>
+        <v>54.569936</v>
       </c>
       <c r="I35">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="J35">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N35">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q35">
-        <v>1072.014771813561</v>
+        <v>1389.461590063129</v>
       </c>
       <c r="R35">
-        <v>1072.014771813561</v>
+        <v>12505.15431056816</v>
       </c>
       <c r="S35">
-        <v>0.01113827603564826</v>
+        <v>0.008685831723941946</v>
       </c>
       <c r="T35">
-        <v>0.01113827603564826</v>
+        <v>0.008685831723941948</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>14.041447921999</v>
+        <v>18.18997866666666</v>
       </c>
       <c r="H36">
-        <v>14.041447921999</v>
+        <v>54.569936</v>
       </c>
       <c r="I36">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="J36">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N36">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O36">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P36">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q36">
-        <v>800.527074455281</v>
+        <v>1058.418215019765</v>
       </c>
       <c r="R36">
-        <v>800.527074455281</v>
+        <v>9525.763935177887</v>
       </c>
       <c r="S36">
-        <v>0.008317508082662475</v>
+        <v>0.006616406365575747</v>
       </c>
       <c r="T36">
-        <v>0.008317508082662475</v>
+        <v>0.006616406365575748</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>14.041447921999</v>
+        <v>18.18997866666666</v>
       </c>
       <c r="H37">
-        <v>14.041447921999</v>
+        <v>54.569936</v>
       </c>
       <c r="I37">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="J37">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N37">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q37">
-        <v>1512.939367715581</v>
+        <v>2107.052398250977</v>
       </c>
       <c r="R37">
-        <v>1512.939367715581</v>
+        <v>18963.4715842588</v>
       </c>
       <c r="S37">
-        <v>0.01571950009075622</v>
+        <v>0.01317165058438556</v>
       </c>
       <c r="T37">
-        <v>0.01571950009075622</v>
+        <v>0.01317165058438556</v>
       </c>
     </row>
   </sheetData>
